--- a/plano-basico.xlsx
+++ b/plano-basico.xlsx
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -8121,7 +8121,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -10464,7 +10464,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -11590,7 +11590,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -13758,7 +13758,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -13837,7 +13837,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -14133,7 +14133,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -15239,7 +15239,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -17454,7 +17454,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -17612,7 +17612,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -18086,7 +18086,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -18556,7 +18556,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -19255,7 +19255,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -19405,7 +19405,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -19555,7 +19555,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -19634,7 +19634,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -19875,7 +19875,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -20041,7 +20041,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>4</v>
+        <v>253</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -20353,7 +20353,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>5</v>
+        <v>254</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>6</v>
+        <v>255</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>7</v>
+        <v>256</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -20590,7 +20590,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -20673,7 +20673,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>9</v>
+        <v>258</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -20839,7 +20839,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -20922,7 +20922,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -21171,7 +21171,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>22</v>
+        <v>271</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -21941,7 +21941,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -22324,7 +22324,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -22474,7 +22474,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>47</v>
+        <v>296</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -23710,7 +23710,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -23860,7 +23860,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -24002,7 +24002,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -24081,7 +24081,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -24160,7 +24160,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>56</v>
+        <v>305</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>57</v>
+        <v>306</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>58</v>
+        <v>307</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -24535,7 +24535,7 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>59</v>
+        <v>308</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -24614,7 +24614,7 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>61</v>
+        <v>310</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>62</v>
+        <v>311</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -24839,7 +24839,7 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>63</v>
+        <v>312</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -24918,7 +24918,7 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>64</v>
+        <v>313</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>65</v>
+        <v>314</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>66</v>
+        <v>315</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>67</v>
+        <v>316</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>68</v>
+        <v>317</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>69</v>
+        <v>318</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>70</v>
+        <v>319</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>72</v>
+        <v>321</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>73</v>
+        <v>322</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>84</v>
+        <v>333</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>85</v>
+        <v>334</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>87</v>
+        <v>336</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -26808,7 +26808,7 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>88</v>
+        <v>337</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>89</v>
+        <v>338</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>90</v>
+        <v>339</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>91</v>
+        <v>340</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>92</v>
+        <v>341</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>93</v>
+        <v>342</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -27270,7 +27270,7 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>94</v>
+        <v>343</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>95</v>
+        <v>344</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>96</v>
+        <v>345</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>97</v>
+        <v>346</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>98</v>
+        <v>347</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>99</v>
+        <v>348</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -27888,7 +27888,7 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>102</v>
+        <v>351</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>104</v>
+        <v>353</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -28113,7 +28113,7 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>105</v>
+        <v>354</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -28190,7 +28190,7 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>106</v>
+        <v>355</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>107</v>
+        <v>356</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>108</v>
+        <v>357</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>109</v>
+        <v>358</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -28500,7 +28500,7 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>110</v>
+        <v>359</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -28577,7 +28577,7 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>111</v>
+        <v>360</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -28654,7 +28654,7 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>112</v>
+        <v>361</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -28735,7 +28735,7 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>113</v>
+        <v>362</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>114</v>
+        <v>363</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -28893,7 +28893,7 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>115</v>
+        <v>364</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>116</v>
+        <v>365</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -29047,7 +29047,7 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>117</v>
+        <v>366</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -29124,7 +29124,7 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>119</v>
+        <v>368</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -29272,7 +29272,7 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>120</v>
+        <v>369</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>121</v>
+        <v>370</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>122</v>
+        <v>371</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>123</v>
+        <v>372</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -29580,7 +29580,7 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>124</v>
+        <v>373</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -29657,7 +29657,7 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -29734,7 +29734,7 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>126</v>
+        <v>375</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -29811,7 +29811,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>127</v>
+        <v>376</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>128</v>
+        <v>377</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -29969,7 +29969,7 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>129</v>
+        <v>378</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -30046,7 +30046,7 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>130</v>
+        <v>379</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -30123,7 +30123,7 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -30200,7 +30200,7 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>132</v>
+        <v>381</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -30277,7 +30277,7 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>133</v>
+        <v>382</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>134</v>
+        <v>383</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>135</v>
+        <v>384</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>136</v>
+        <v>385</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -30589,7 +30589,7 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>137</v>
+        <v>386</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>138</v>
+        <v>387</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -30751,7 +30751,7 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>139</v>
+        <v>388</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -30828,7 +30828,7 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>140</v>
+        <v>389</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>141</v>
+        <v>390</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>142</v>
+        <v>391</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>143</v>
+        <v>392</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>144</v>
+        <v>393</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>145</v>
+        <v>394</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -31298,7 +31298,7 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>146</v>
+        <v>395</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -31373,7 +31373,7 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>147</v>
+        <v>396</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>148</v>
+        <v>397</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>149</v>
+        <v>398</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>150</v>
+        <v>399</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -31681,7 +31681,7 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -31762,7 +31762,7 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>152</v>
+        <v>401</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>153</v>
+        <v>402</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>154</v>
+        <v>403</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>155</v>
+        <v>404</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>156</v>
+        <v>405</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -32155,7 +32155,7 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>157</v>
+        <v>406</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -32232,7 +32232,7 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>158</v>
+        <v>407</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -32313,7 +32313,7 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>159</v>
+        <v>408</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>160</v>
+        <v>409</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -32467,7 +32467,7 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>161</v>
+        <v>410</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -32544,7 +32544,7 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>162</v>
+        <v>411</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -32621,7 +32621,7 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>163</v>
+        <v>412</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -32698,7 +32698,7 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>164</v>
+        <v>413</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -32775,7 +32775,7 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>165</v>
+        <v>414</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -32852,7 +32852,7 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>166</v>
+        <v>415</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -32929,7 +32929,7 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>167</v>
+        <v>416</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -33006,7 +33006,7 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>168</v>
+        <v>417</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -33083,7 +33083,7 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>169</v>
+        <v>418</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>170</v>
+        <v>419</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>171</v>
+        <v>420</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>172</v>
+        <v>421</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -33393,7 +33393,7 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>173</v>
+        <v>422</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>174</v>
+        <v>423</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>175</v>
+        <v>424</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>176</v>
+        <v>425</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -33717,7 +33717,7 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>177</v>
+        <v>426</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -33798,7 +33798,7 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>178</v>
+        <v>427</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>179</v>
+        <v>428</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -33954,7 +33954,7 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>180</v>
+        <v>429</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>181</v>
+        <v>430</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>182</v>
+        <v>431</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>183</v>
+        <v>432</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -34266,7 +34266,7 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>184</v>
+        <v>433</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -34343,7 +34343,7 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>185</v>
+        <v>434</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -34420,7 +34420,7 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>186</v>
+        <v>435</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>187</v>
+        <v>436</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -34574,7 +34574,7 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>188</v>
+        <v>437</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>189</v>
+        <v>438</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>190</v>
+        <v>439</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>191</v>
+        <v>440</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -34886,7 +34886,7 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>192</v>
+        <v>441</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -34963,7 +34963,7 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>193</v>
+        <v>442</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -35040,7 +35040,7 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>194</v>
+        <v>443</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -35117,7 +35117,7 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>195</v>
+        <v>444</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -35194,7 +35194,7 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>196</v>
+        <v>445</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>197</v>
+        <v>446</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -35348,7 +35348,7 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>198</v>
+        <v>447</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -35425,7 +35425,7 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>199</v>
+        <v>448</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -35504,7 +35504,7 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>200</v>
+        <v>449</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -35585,7 +35585,7 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -35670,7 +35670,7 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>202</v>
+        <v>451</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -35747,7 +35747,7 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>203</v>
+        <v>452</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>204</v>
+        <v>453</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>205</v>
+        <v>454</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -35978,7 +35978,7 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>206</v>
+        <v>455</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -36063,7 +36063,7 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>207</v>
+        <v>456</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -36144,7 +36144,7 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>208</v>
+        <v>457</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>209</v>
+        <v>458</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -36298,7 +36298,7 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>210</v>
+        <v>459</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>211</v>
+        <v>460</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -36454,7 +36454,7 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>212</v>
+        <v>461</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>213</v>
+        <v>462</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -36620,7 +36620,7 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>214</v>
+        <v>463</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>215</v>
+        <v>464</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>216</v>
+        <v>465</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -36855,7 +36855,7 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>217</v>
+        <v>466</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>218</v>
+        <v>467</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>219</v>
+        <v>468</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>220</v>
+        <v>469</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>221</v>
+        <v>470</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -37248,7 +37248,7 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>222</v>
+        <v>471</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>223</v>
+        <v>472</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -37402,7 +37402,7 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>224</v>
+        <v>473</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -37479,7 +37479,7 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>225</v>
+        <v>474</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -37558,7 +37558,7 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>227</v>
+        <v>476</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -37712,7 +37712,7 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>228</v>
+        <v>477</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -37793,7 +37793,7 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>229</v>
+        <v>478</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>230</v>
+        <v>479</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -37947,7 +37947,7 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>231</v>
+        <v>480</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -38024,7 +38024,7 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>232</v>
+        <v>481</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -38109,7 +38109,7 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>233</v>
+        <v>482</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>234</v>
+        <v>483</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>235</v>
+        <v>484</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -38352,7 +38352,7 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>236</v>
+        <v>485</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -38433,7 +38433,7 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>237</v>
+        <v>486</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -38508,7 +38508,7 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>238</v>
+        <v>487</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -38585,7 +38585,7 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>239</v>
+        <v>488</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -38662,7 +38662,7 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>240</v>
+        <v>489</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -38739,7 +38739,7 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>241</v>
+        <v>490</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -38816,7 +38816,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>242</v>
+        <v>491</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -38895,7 +38895,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>243</v>
+        <v>492</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -38976,7 +38976,7 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>244</v>
+        <v>493</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -39128,7 +39128,7 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>246</v>
+        <v>495</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -39213,7 +39213,7 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>247</v>
+        <v>496</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -39294,7 +39294,7 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>248</v>
+        <v>497</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -39371,7 +39371,7 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>249</v>
+        <v>498</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -39448,7 +39448,7 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>250</v>
+        <v>499</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
